--- a/biology/Botanique/Bureau_du_forestier_en_chef/Bureau_du_forestier_en_chef.xlsx
+++ b/biology/Botanique/Bureau_du_forestier_en_chef/Bureau_du_forestier_en_chef.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -511,7 +523,9 @@
           <t>Mission du Forestier en chef</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Forestier en chef a pour mission principale de déterminer les possibilités forestières des forêts publiques du Québec. Les possibilités forestières correspondent au volume maximum des récoltes annuelles de bois par essence ou groupe d’essences que l’on peut prélever tout en assurant le renouvellement et l’évolution de la forêt sur la base des objectifs d’aménagement durable des forêts.
 </t>
@@ -542,7 +556,9 @@
           <t>Principaux mandats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le forestier en chef a pour fonctions, dans le respect des orientations et des objectifs prévus à la stratégie d’aménagement durable des forêts:
 1°  d’établir les méthodes, les moyens et les outils requis pour calculer les possibilités forestières des forêts du domaine de l’État;
